--- a/src/main/resources/config/测试站点信息.xlsx
+++ b/src/main/resources/config/测试站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>站点编号</t>
   </si>
@@ -36,6 +36,24 @@
     <t>工控机密码</t>
   </si>
   <si>
+    <t>子公司编号</t>
+  </si>
+  <si>
+    <t>AEE001</t>
+  </si>
+  <si>
+    <t>武康煤场站</t>
+  </si>
+  <si>
+    <t>119.3.103.143</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>!5rtY6LoP^wr</t>
+  </si>
+  <si>
     <t>3308A01</t>
   </si>
   <si>
@@ -45,12 +63,6 @@
     <t>192.168.0.11</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>!5rtY6LoP^wr</t>
-  </si>
-  <si>
     <t>dedpm25syrx2</t>
   </si>
   <si>
@@ -60,13 +72,13 @@
     <t>localhost</t>
   </si>
   <si>
-    <t>AEE001</t>
-  </si>
-  <si>
-    <t>武康煤场站</t>
-  </si>
-  <si>
-    <t>119.3.103.143</t>
+    <t>AH1002</t>
+  </si>
+  <si>
+    <t>柯城——通城2站</t>
+  </si>
+  <si>
+    <t>122.112.161.12</t>
   </si>
 </sst>
 </file>
@@ -702,13 +714,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,13 +1071,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
@@ -1073,7 +1085,7 @@
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,62 +1104,98 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="28" customHeight="1" spans="1:5">
+    <row r="3" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="24" customHeight="1" spans="1:5">
+    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1"/>
+    <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/config/测试站点信息.xlsx
+++ b/src/main/resources/config/测试站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>站点编号</t>
   </si>
@@ -39,6 +39,9 @@
     <t>子公司编号</t>
   </si>
   <si>
+    <t>能否正常连接</t>
+  </si>
+  <si>
     <t>AEE001</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>!5rtY6LoP^wr</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>3308A01</t>
   </si>
   <si>
@@ -64,12 +70,6 @@
   </si>
   <si>
     <t>dedpm25syrx2</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>localhost</t>
   </si>
   <si>
     <t>AH1002</t>
@@ -88,10 +88,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,82 +100,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,13 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -204,48 +199,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,19 +259,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,97 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,61 +427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +450,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,17 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,30 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -557,167 +539,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,21 +1061,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,93 +1099,68 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="1:8">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="23" customHeight="1" spans="1:5">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/测试站点信息.xlsx
+++ b/src/main/resources/config/测试站点信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>站点编号</t>
   </si>
@@ -57,7 +57,7 @@
     <t>!5rtY6LoP^wr</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
   </si>
   <si>
     <t>3308A01</t>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1123,7 +1123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+    <row r="3" s="2" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1141,6 +1141,9 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:8">
